--- a/210621 - AG thesis/Analyses/qPCR analysis/Excel_analyses/uidA_Ecoli_RS_EF.xlsx
+++ b/210621 - AG thesis/Analyses/qPCR analysis/Excel_analyses/uidA_Ecoli_RS_EF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TL\Work\Research\Dr. Uyaguari\AG\AG-TL-MUD-human-enteric-viruses-quantitation\210621 - AG thesis\Analyses\qPCR analysis\Excel_analyses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C586DA-6221-4BAB-9C07-8D8D158B43C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C591634-A926-48D7-B864-E4FC720AB728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,18 +34,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>Event</t>
   </si>
   <si>
-    <t>uidA_EF (GCN/mL sample)</t>
+    <t>E. coli (MPN/mL)</t>
   </si>
   <si>
-    <t>uidA_RS (GCN/mL sample)</t>
+    <t>Source</t>
   </si>
   <si>
-    <t>E. coli (MPN/mL)</t>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>EF</t>
+  </si>
+  <si>
+    <t>uidA (GCN/mL sample)</t>
   </si>
 </sst>
 </file>
@@ -214,7 +220,7 @@
             <c:v>EF</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -237,7 +243,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$9</c:f>
+              <c:f>Sheet1!$C$2:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -253,26 +259,29 @@
                 <c:pt idx="3">
                   <c:v>10.8</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$9</c:f>
+              <c:f>Sheet1!#REF!</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>30.958325068155926</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30.500267664591473</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>574.6956787109375</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.801080147425334</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -314,7 +323,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$9</c:f>
+              <c:f>Sheet1!$C$2:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -330,12 +339,24 @@
                 <c:pt idx="3">
                   <c:v>10.8</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$9</c:f>
+              <c:f>Sheet1!$D$2:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -350,6 +371,18 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>141.78622945149741</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.958325068155926</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.500267664591473</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>574.6956787109375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.801080147425334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1209,16 +1242,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>259080</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1511,13 +1544,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -1525,82 +1558,126 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2">
         <v>0.6</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1.4346945683161418</v>
-      </c>
-      <c r="D2">
-        <v>30.958325068155926</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
         <v>0.6</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1.4180534084637959</v>
-      </c>
-      <c r="D3">
-        <v>30.500267664591473</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
         <v>0.9</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>406.71275838216098</v>
-      </c>
-      <c r="D4">
-        <v>574.6956787109375</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
         <v>10.8</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>141.78622945149741</v>
-      </c>
-      <c r="D5">
-        <v>4.801080147425334</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D6">
+        <v>30.958325068155926</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D7">
+        <v>30.500267664591473</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="D8">
+        <v>574.6956787109375</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10.8</v>
+      </c>
+      <c r="D9">
+        <v>4.801080147425334</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
